--- a/src/wb_ozon/brand-id-test.xlsx
+++ b/src/wb_ozon/brand-id-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikechetv/Desktop/parser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikechetv/Desktop/SPLAT/src/wb_ozon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8525078-14EE-FE4E-8EBD-8F54FD7C77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86F3F6-6FCB-D240-A4B3-48DB76F0F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Твердое туалетное мыло</t>
   </si>
@@ -38,18 +38,71 @@
   </si>
   <si>
     <t>brand_Id_wb</t>
+  </si>
+  <si>
+    <t>Жидкое мыло</t>
+  </si>
+  <si>
+    <t>Ополаскиватель для посуды</t>
+  </si>
+  <si>
+    <t>Капсулы для стирки</t>
+  </si>
+  <si>
+    <t>Гель для стирки</t>
+  </si>
+  <si>
+    <t>Порошок для стирки</t>
+  </si>
+  <si>
+    <t>Пятновыводитель</t>
+  </si>
+  <si>
+    <t>Жидкость для мытья посуды</t>
+  </si>
+  <si>
+    <t>Зубная нить</t>
+  </si>
+  <si>
+    <t>Пенка для полости рта</t>
+  </si>
+  <si>
+    <t>Дорожные наборы (щетка + паста)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средство для уборки дома </t>
+  </si>
+  <si>
+    <t>Пенка для мытья посуды</t>
+  </si>
+  <si>
+    <t>таблетки для посудомоечных машин</t>
+  </si>
+  <si>
+    <t>соль для посудомоечных машин</t>
+  </si>
+  <si>
+    <t>хозяйственное мыло</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,10 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -484,12 +541,313 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14733</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7680</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>13364</v>
+      </c>
+      <c r="F5" s="4">
+        <v>27809</v>
+      </c>
+      <c r="G5" s="4">
+        <v>49651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>14733</v>
+      </c>
+      <c r="C6">
+        <v>8229</v>
+      </c>
+      <c r="D6">
+        <v>7716</v>
+      </c>
+      <c r="E6">
+        <v>7927</v>
+      </c>
+      <c r="F6">
+        <v>8230</v>
+      </c>
+      <c r="G6">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14733</v>
+      </c>
+      <c r="C7">
+        <v>7716</v>
+      </c>
+      <c r="D7">
+        <v>49651</v>
+      </c>
+      <c r="E7">
+        <v>49330</v>
+      </c>
+      <c r="F7">
+        <v>165407</v>
+      </c>
+      <c r="G7">
+        <v>1145396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>8207</v>
+      </c>
+      <c r="C8">
+        <v>8770</v>
+      </c>
+      <c r="D8">
+        <v>7716</v>
+      </c>
+      <c r="E8">
+        <v>12141</v>
+      </c>
+      <c r="F8">
+        <v>1126662</v>
+      </c>
+      <c r="G8">
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>8207</v>
+      </c>
+      <c r="C9">
+        <v>7716</v>
+      </c>
+      <c r="D9">
+        <v>28777</v>
+      </c>
+      <c r="E9">
+        <v>10280</v>
+      </c>
+      <c r="F9">
+        <v>8770</v>
+      </c>
+      <c r="G9">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8207</v>
+      </c>
+      <c r="C10">
+        <v>7716</v>
+      </c>
+      <c r="D10">
+        <v>12143</v>
+      </c>
+      <c r="E10">
+        <v>10280</v>
+      </c>
+      <c r="F10">
+        <v>48169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>21559</v>
+      </c>
+      <c r="C11">
+        <v>7675</v>
+      </c>
+      <c r="D11">
+        <v>816484</v>
+      </c>
+      <c r="E11">
+        <v>7676</v>
+      </c>
+      <c r="F11">
+        <v>10281</v>
+      </c>
+      <c r="G11">
+        <v>327596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>7716</v>
+      </c>
+      <c r="C12">
+        <v>22506</v>
+      </c>
+      <c r="D12">
+        <v>14733</v>
+      </c>
+      <c r="E12">
+        <v>109720</v>
+      </c>
+      <c r="F12">
+        <v>78028</v>
+      </c>
+      <c r="G12">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7676</v>
+      </c>
+      <c r="C13">
+        <v>7675</v>
+      </c>
+      <c r="D13">
+        <v>12116</v>
+      </c>
+      <c r="E13">
+        <v>22506</v>
+      </c>
+      <c r="F13">
+        <v>2594991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>30659</v>
+      </c>
+      <c r="C14">
+        <v>14733</v>
+      </c>
+      <c r="D14">
+        <v>435916</v>
+      </c>
+      <c r="E14">
+        <v>53081</v>
+      </c>
+      <c r="F14">
+        <v>393798</v>
+      </c>
+      <c r="G14">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>764252</v>
+      </c>
+      <c r="C15">
+        <v>351065</v>
+      </c>
+      <c r="D15">
+        <v>7716</v>
+      </c>
+      <c r="E15">
+        <v>6594</v>
+      </c>
+      <c r="F15">
+        <v>8208</v>
+      </c>
+      <c r="G15">
+        <v>30659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7716</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14733</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7680</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12113</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7143</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>53197</v>
+      </c>
+      <c r="C17">
+        <v>116288</v>
+      </c>
+      <c r="D17">
+        <v>79000</v>
+      </c>
+      <c r="E17">
+        <v>354754</v>
+      </c>
+      <c r="F17">
+        <v>487749</v>
+      </c>
+      <c r="G17">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>19570</v>
+      </c>
+      <c r="C18" s="4">
+        <v>12683</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
